--- a/data/trans_orig/P14A32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E87F4B5C-6DE2-4BC7-ABC3-B19DB0E40CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5EA5CBB-04F5-4064-B3A7-4F4297DCF9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9725AE50-4CDA-4688-AEDC-2264404EFCC4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0D92D47-415F-4FBC-869C-946CE9BBBFA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>44,49%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>55,51%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -147,19 +147,19 @@
     <t>51,13%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>12,18%</t>
@@ -174,19 +174,19 @@
     <t>48,87%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -207,55 +207,55 @@
     <t>60,95%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -276,19 +276,19 @@
     <t>50,57%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>29,84%</t>
@@ -303,67 +303,67 @@
     <t>49,43%</t>
   </si>
   <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>78,7%</t>
+    <t>78,78%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>21,3%</t>
+    <t>21,22%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -387,55 +387,55 @@
     <t>62,51%</t>
   </si>
   <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D988708-5C0A-4E63-837A-EDB8405D95C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7DC8E0-ECB5-4B72-9153-D1C44A2314BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1592,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABE475-7D31-40A5-AA31-10C3045A915F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0CA2D5-770B-45FA-A559-ED1E48117CF0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A32-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5EA5CBB-04F5-4064-B3A7-4F4297DCF9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20EE2EE-52B5-4580-948D-745D7013B19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0D92D47-415F-4FBC-869C-946CE9BBBFA2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0570138-E172-4919-9C54-2D430DA01994}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>44,49%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>55,51%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>42,84%</t>
+    <t>42,95%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,19 +147,19 @@
     <t>51,13%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>12,18%</t>
@@ -168,25 +168,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>57,16%</t>
+    <t>57,05%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -207,19 +207,19 @@
     <t>60,95%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>43,46%</t>
@@ -228,31 +228,31 @@
     <t>31,75%</t>
   </si>
   <si>
-    <t>54,49%</t>
+    <t>54,79%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>45,51%</t>
+    <t>45,21%</t>
   </si>
   <si>
     <t>68,25%</t>
@@ -261,109 +261,109 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2015 (Tasa respuesta: 0,96%)</t>
+    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2016 (Tasa respuesta: 0,96%)</t>
   </si>
   <si>
     <t>70,16%</t>
   </si>
   <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>50,57%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>29,84%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
   </si>
   <si>
     <t>49,43%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>79,19%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>20,81%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -387,55 +387,55 @@
     <t>62,51%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7DC8E0-ECB5-4B72-9153-D1C44A2314BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AF25F8-9075-4DE1-8976-A0335FA38FD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1592,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0CA2D5-770B-45FA-A559-ED1E48117CF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709F2DC7-3D56-4A2A-975E-2573EEF1C012}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
